--- a/Jupyter/simulationID/cim_0324_0620/data/script_ssi.xlsx
+++ b/Jupyter/simulationID/cim_0324_0620/data/script_ssi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 4 2020 After NYC/Jupyter/simulationID/cim_0315_1240/data/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 14 GitHUB/BatYamNY/Jupyter/simulationID/cim_0324_0620/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B637FA-912C-2F48-9574-4A14071AA977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279294F7-35B7-9548-912B-F33092DF141C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="-2680" windowWidth="33600" windowHeight="20540" xr2:uid="{A86D1036-0752-124D-A288-1321B8986789}"/>
   </bookViews>
@@ -740,7 +740,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +881,7 @@
         <v>478</v>
       </c>
       <c r="L2">
-        <f>G2*F2</f>
+        <f t="shared" ref="L2:L19" si="0">G2*F2</f>
         <v>1681533.3333333335</v>
       </c>
       <c r="M2">
@@ -911,11 +911,11 @@
         <v>20140882</v>
       </c>
       <c r="U2" t="str">
-        <f>"before_"&amp;B2&amp;".xlsx"</f>
+        <f t="shared" ref="U2:U19" si="1">"before_"&amp;B2&amp;".xlsx"</f>
         <v>before_215_22.xlsx</v>
       </c>
       <c r="V2" t="str">
-        <f>"after_"&amp;B2&amp;".xlsx"</f>
+        <f t="shared" ref="V2:V19" si="2">"after_"&amp;B2&amp;".xlsx"</f>
         <v>after_215_22.xlsx</v>
       </c>
       <c r="X2" t="s">
@@ -962,19 +962,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K5" si="0">INT(J3*F3)</f>
+        <f t="shared" ref="K3:K4" si="3">INT(J3*F3)</f>
         <v>543</v>
       </c>
       <c r="L3">
-        <f>G3*F3</f>
+        <f t="shared" si="0"/>
         <v>2031333.3333333335</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M6" si="1">H3*F3+I3+K3</f>
+        <f t="shared" ref="M3:M6" si="4">H3*F3+I3+K3</f>
         <v>7443</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="2">K3+I3</f>
+        <f t="shared" ref="N3:N6" si="5">K3+I3</f>
         <v>643</v>
       </c>
       <c r="O3">
@@ -996,11 +996,11 @@
         <v>20120398</v>
       </c>
       <c r="U3" t="str">
-        <f>"before_"&amp;B3&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_216_10.xlsx</v>
       </c>
       <c r="V3" t="str">
-        <f>"after_"&amp;B3&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_216_10.xlsx</v>
       </c>
       <c r="X3" t="s">
@@ -1047,19 +1047,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K4" s="7">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
-        <v>510</v>
-      </c>
-      <c r="L4">
-        <f>G4*F4</f>
         <v>1829161.6666666667</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6908</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>610</v>
       </c>
       <c r="O4">
@@ -1081,11 +1081,11 @@
         <v>20141086</v>
       </c>
       <c r="U4" t="str">
-        <f>"before_"&amp;B4&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_216_4.xlsx</v>
       </c>
       <c r="V4" t="str">
-        <f>"after_"&amp;B4&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_216_4.xlsx</v>
       </c>
       <c r="X4" t="s">
@@ -1132,18 +1132,18 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K5" s="7">
-        <f>INT(J5*F5)</f>
+        <f t="shared" ref="K5:K19" si="6">INT(J5*F5)</f>
         <v>407</v>
       </c>
       <c r="L5">
-        <f>G5*F5</f>
+        <f t="shared" si="0"/>
         <v>156250</v>
       </c>
       <c r="M5">
         <v>6000</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>507</v>
       </c>
       <c r="O5">
@@ -1165,11 +1165,11 @@
         <v>20160636</v>
       </c>
       <c r="U5" t="str">
-        <f>"before_"&amp;B5&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_216_7.xlsx</v>
       </c>
       <c r="V5" t="str">
-        <f>"after_"&amp;B5&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_216_7.xlsx</v>
       </c>
       <c r="X5" t="s">
@@ -1216,19 +1216,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K6" s="9">
-        <f>INT(J6*F6)</f>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="L6">
-        <f>G6*F6</f>
+        <f t="shared" si="0"/>
         <v>1448755.6666666667</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5334</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>534</v>
       </c>
       <c r="O6">
@@ -1250,11 +1250,11 @@
         <v>20140449</v>
       </c>
       <c r="U6" s="6" t="str">
-        <f>"before_"&amp;B6&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_215_15.xlsx</v>
       </c>
       <c r="V6" s="6" t="str">
-        <f>"after_"&amp;B6&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_215_15.xlsx</v>
       </c>
       <c r="X6" t="s">
@@ -1300,19 +1300,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K7" s="7">
-        <f>INT(J7*F7)</f>
+        <f t="shared" si="6"/>
         <v>510</v>
       </c>
       <c r="L7">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>1795556.6666666667</v>
       </c>
       <c r="M7">
-        <f>H7*F7+I7+K7</f>
+        <f t="shared" ref="M7:M19" si="7">H7*F7+I7+K7</f>
         <v>5310</v>
       </c>
       <c r="N7">
-        <f>K7+I7</f>
+        <f t="shared" ref="N7:N19" si="8">K7+I7</f>
         <v>610</v>
       </c>
       <c r="O7">
@@ -1334,11 +1334,11 @@
         <v>20140231</v>
       </c>
       <c r="U7" t="str">
-        <f>"before_"&amp;B7&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_209_6.xlsx</v>
       </c>
       <c r="V7" t="str">
-        <f>"after_"&amp;B7&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_209_6.xlsx</v>
       </c>
       <c r="X7" t="s">
@@ -1386,19 +1386,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K8" s="7">
-        <f>INT(J8*F8)</f>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="L8">
-        <f>G8*F8</f>
+        <f t="shared" si="0"/>
         <v>1491812.5000000002</v>
       </c>
       <c r="M8">
-        <f>H8*F8+I8+K8</f>
+        <f t="shared" si="7"/>
         <v>5832</v>
       </c>
       <c r="N8">
-        <f>K8+I8</f>
+        <f t="shared" si="8"/>
         <v>507</v>
       </c>
       <c r="O8">
@@ -1420,11 +1420,11 @@
         <v>20120894</v>
       </c>
       <c r="U8" t="str">
-        <f>"before_"&amp;B8&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_209_8.xlsx</v>
       </c>
       <c r="V8" t="str">
-        <f>"after_"&amp;B8&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_209_8.xlsx</v>
       </c>
       <c r="X8" t="s">
@@ -1470,19 +1470,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K9" s="7">
-        <f>INT(J9*F9)</f>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
       <c r="L9">
-        <f>G9*F9</f>
+        <f t="shared" si="0"/>
         <v>1560370.3299999998</v>
       </c>
       <c r="M9">
-        <f>H9*F9+I9+K9</f>
+        <f t="shared" si="7"/>
         <v>5832</v>
       </c>
       <c r="N9">
-        <f>K9+I9</f>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="O9">
@@ -1504,11 +1504,11 @@
         <v>20181295</v>
       </c>
       <c r="U9" t="str">
-        <f>"before_"&amp;B9&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_208_12.xlsx</v>
       </c>
       <c r="V9" t="str">
-        <f>"after_"&amp;B9&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_208_12.xlsx</v>
       </c>
       <c r="X9" t="s">
@@ -1555,19 +1555,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K10" s="7">
-        <f>INT(J10*F10)</f>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="L10">
-        <f>G10*F10</f>
+        <f t="shared" si="0"/>
         <v>1191384.4041666666</v>
       </c>
       <c r="M10">
-        <f>H10*F10+I10+K10</f>
+        <f t="shared" si="7"/>
         <v>4808</v>
       </c>
       <c r="N10">
-        <f>K10+I10</f>
+        <f t="shared" si="8"/>
         <v>453</v>
       </c>
       <c r="O10">
@@ -1589,11 +1589,11 @@
         <v>20180335</v>
       </c>
       <c r="U10" t="str">
-        <f>"before_"&amp;B10&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_210_56.xlsx</v>
       </c>
       <c r="V10" t="str">
-        <f>"after_"&amp;B10&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_210_56.xlsx</v>
       </c>
       <c r="X10" t="s">
@@ -1639,19 +1639,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K11" s="7">
-        <f>INT(J11*F11)</f>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
       <c r="L11">
-        <f>G11*F11</f>
+        <f t="shared" si="0"/>
         <v>1687985.5049999999</v>
       </c>
       <c r="M11">
-        <f>H11*F11+I11+K11</f>
+        <f t="shared" si="7"/>
         <v>6087</v>
       </c>
       <c r="N11">
-        <f>K11+I11</f>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="O11">
@@ -1673,11 +1673,11 @@
         <v>20150274</v>
       </c>
       <c r="U11" t="str">
-        <f>"before_"&amp;B11&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_210_11.xlsx</v>
       </c>
       <c r="V11" t="str">
-        <f>"after_"&amp;B11&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_210_11.xlsx</v>
       </c>
       <c r="X11" t="s">
@@ -1724,19 +1724,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K12" s="10">
-        <f>INT(J12*F12)</f>
+        <f t="shared" si="6"/>
         <v>423</v>
       </c>
       <c r="L12">
-        <f>G12*F12</f>
+        <f t="shared" si="0"/>
         <v>1612750.5420000001</v>
       </c>
       <c r="M12">
-        <f>H12*F12+I12+K12</f>
+        <f t="shared" si="7"/>
         <v>5359</v>
       </c>
       <c r="N12">
-        <f>K12+I12</f>
+        <f t="shared" si="8"/>
         <v>523</v>
       </c>
       <c r="O12" s="8">
@@ -1758,11 +1758,11 @@
         <v>20141190</v>
       </c>
       <c r="U12" t="str">
-        <f>"before_"&amp;B12&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_216_3.xlsx</v>
       </c>
       <c r="V12" t="str">
-        <f>"after_"&amp;B12&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_216_3.xlsx</v>
       </c>
       <c r="X12" t="s">
@@ -1809,19 +1809,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K13" s="10">
-        <f>INT(J13*F13)</f>
+        <f t="shared" si="6"/>
         <v>451</v>
       </c>
       <c r="L13">
-        <f>G13*F13</f>
+        <f t="shared" si="0"/>
         <v>1587799.8908333334</v>
       </c>
       <c r="M13">
-        <f>H13*F13+I13+K13</f>
+        <f t="shared" si="7"/>
         <v>4950</v>
       </c>
       <c r="N13">
-        <f>K13+I13</f>
+        <f t="shared" si="8"/>
         <v>551</v>
       </c>
       <c r="O13" s="8">
@@ -1843,11 +1843,11 @@
         <v>20140060</v>
       </c>
       <c r="U13" t="str">
-        <f>"before_"&amp;B13&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_215_18.xlsx</v>
       </c>
       <c r="V13" t="str">
-        <f>"after_"&amp;B13&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_215_18.xlsx</v>
       </c>
       <c r="X13" t="s">
@@ -1894,19 +1894,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K14" s="10">
-        <f>INT(J14*F14)</f>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="L14">
-        <f>G14*F14</f>
+        <f t="shared" si="0"/>
         <v>1438701.0933333335</v>
       </c>
       <c r="M14" s="8">
-        <f>H14*F14+I14+K14</f>
+        <f t="shared" si="7"/>
         <v>5312</v>
       </c>
       <c r="N14" s="8">
-        <f>K14+I14</f>
+        <f t="shared" si="8"/>
         <v>502</v>
       </c>
       <c r="O14" s="8">
@@ -1928,11 +1928,11 @@
         <v>20110270</v>
       </c>
       <c r="U14" t="str">
-        <f>"before_"&amp;B14&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_215_24.xlsx</v>
       </c>
       <c r="V14" t="str">
-        <f>"after_"&amp;B14&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_215_24.xlsx</v>
       </c>
       <c r="X14" t="s">
@@ -1978,19 +1978,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K15" s="10">
-        <f>INT(J15*F15)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="L15">
-        <f>G15*F15</f>
+        <f t="shared" si="0"/>
         <v>1547950.743</v>
       </c>
       <c r="M15" s="10">
-        <f>H15*F15+I15+K15</f>
+        <f t="shared" si="7"/>
         <v>5805</v>
       </c>
       <c r="N15" s="10">
-        <f>K15+I15</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="O15">
@@ -2012,11 +2012,11 @@
         <v>20131419</v>
       </c>
       <c r="U15" t="str">
-        <f>"before_"&amp;B15&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_220_4.xlsx</v>
       </c>
       <c r="V15" t="str">
-        <f>"after_"&amp;B15&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_220_4.xlsx</v>
       </c>
       <c r="X15" t="s">
@@ -2062,19 +2062,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K16" s="10">
-        <f>INT(J16*F16)</f>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="L16">
-        <f>G16*F16</f>
+        <f t="shared" si="0"/>
         <v>1885658.8800000001</v>
       </c>
       <c r="M16" s="10">
-        <f>H16*F16+I16+K16</f>
+        <f t="shared" si="7"/>
         <v>5734</v>
       </c>
       <c r="N16" s="10">
-        <f>K16+I16</f>
+        <f t="shared" si="8"/>
         <v>534</v>
       </c>
       <c r="O16" s="8">
@@ -2096,11 +2096,11 @@
         <v>80</v>
       </c>
       <c r="U16" t="str">
-        <f>"before_"&amp;B16&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_complex_215_2.xlsx</v>
       </c>
       <c r="V16" t="str">
-        <f>"after_"&amp;B16&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_complex_215_2.xlsx</v>
       </c>
       <c r="W16" t="s">
@@ -2149,19 +2149,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K17" s="10">
-        <f>INT(J17*F17)</f>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="L17">
-        <f>G17*F17</f>
+        <f t="shared" si="0"/>
         <v>1547000</v>
       </c>
       <c r="M17" s="10">
-        <f>H17*F17+I17+K17</f>
+        <f t="shared" si="7"/>
         <v>4548</v>
       </c>
       <c r="N17" s="10">
-        <f>K17+I17</f>
+        <f t="shared" si="8"/>
         <v>453</v>
       </c>
       <c r="O17" s="8">
@@ -2183,11 +2183,11 @@
         <v>47</v>
       </c>
       <c r="U17" t="str">
-        <f>"before_"&amp;B17&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_complex_16.xlsx</v>
       </c>
       <c r="V17" t="str">
-        <f>"after_"&amp;B17&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_complex_16.xlsx</v>
       </c>
       <c r="W17" t="s">
@@ -2237,19 +2237,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K18" s="10">
-        <f>INT(J18*F18)</f>
+        <f t="shared" si="6"/>
         <v>462</v>
       </c>
       <c r="L18">
-        <f>G18*F18</f>
+        <f t="shared" si="0"/>
         <v>1801643.0772727272</v>
       </c>
       <c r="M18" s="10">
-        <f>H18*F18+I18+K18</f>
+        <f t="shared" si="7"/>
         <v>6087</v>
       </c>
       <c r="N18" s="10">
-        <f>K18+I18</f>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="O18" s="8">
@@ -2271,11 +2271,11 @@
         <v>20160319</v>
       </c>
       <c r="U18" t="str">
-        <f>"before_"&amp;B18&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_212_53.xlsx</v>
       </c>
       <c r="V18" t="str">
-        <f>"after_"&amp;B18&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_212_53.xlsx</v>
       </c>
       <c r="X18" t="s">
@@ -2302,6 +2302,9 @@
       <c r="D19">
         <v>2.5</v>
       </c>
+      <c r="E19">
+        <v>0.3</v>
+      </c>
       <c r="F19">
         <v>72</v>
       </c>
@@ -2318,19 +2321,19 @@
         <v>5.4358000000000004</v>
       </c>
       <c r="K19" s="7">
-        <f>INT(J19*F19)</f>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="L19" s="6">
-        <f>G19*F19</f>
+        <f t="shared" si="0"/>
         <v>1536192</v>
       </c>
       <c r="M19">
-        <f>H19*F19+I19+K19</f>
+        <f t="shared" si="7"/>
         <v>4955</v>
       </c>
       <c r="N19">
-        <f>K19+I19</f>
+        <f t="shared" si="8"/>
         <v>491</v>
       </c>
       <c r="O19" s="8">
@@ -2352,11 +2355,11 @@
         <v>35</v>
       </c>
       <c r="U19" t="str">
-        <f>"before_"&amp;B19&amp;".xlsx"</f>
+        <f t="shared" si="1"/>
         <v>before_complex_17.xlsx</v>
       </c>
       <c r="V19" t="str">
-        <f>"after_"&amp;B19&amp;".xlsx"</f>
+        <f t="shared" si="2"/>
         <v>after_complex_17.xlsx</v>
       </c>
       <c r="W19" t="s">
